--- a/models/table_d1.xlsx
+++ b/models/table_d1.xlsx
@@ -103,7 +103,7 @@
     <t xml:space="preserve">l_wy_sci_world         </t>
   </si>
   <si>
-    <t xml:space="preserve">l_wy_state_mdl         </t>
+    <t xml:space="preserve">l_wy_model             </t>
   </si>
   <si>
     <t xml:space="preserve">sy_nat_state    </t>
@@ -112,55 +112,55 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1721            </t>
+    <t xml:space="preserve">1728            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2476          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0540         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0165          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.72          </t>
+    <t xml:space="preserve">0.2477          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1010         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0129          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.23          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0685***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0078)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1132*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0592)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0673         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0698)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1687         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1026)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3350**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1528)        </t>
+    <t xml:space="preserve">0.0642***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0073)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1130*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0590)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0676         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0699)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1724*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1042)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3346**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1520)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
@@ -169,40 +169,40 @@
     <t xml:space="preserve">0.2525          </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0653         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0085          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.496          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0692***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1138**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0578)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0682         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0701)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1592         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1007)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3347**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1486)        </t>
+    <t xml:space="preserve">-0.1163         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0046          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.832          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0650***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1137**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0577)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0686         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0702)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1628         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1023)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3343**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1478)        </t>
   </si>
   <si>
     <t xml:space="preserve">-0.0354***      </t>
@@ -211,307 +211,307 @@
     <t xml:space="preserve">(0.0123)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0166          </t>
+    <t xml:space="preserve">0.0164          </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0142)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4597          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6192          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6028          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.02          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0819***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0116)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0730**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0336)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0793         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0496)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0480         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0656)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1837          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1127)        </t>
+    <t xml:space="preserve">0.4592          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6033          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5985          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.32          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0808***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0121)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0725**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0335)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0805         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0500)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0488         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0675)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1839          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1123)        </t>
   </si>
   <si>
     <t xml:space="preserve">-0.0199*        </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0103)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0001          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0111)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3707***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0979)        </t>
+    <t xml:space="preserve">(0.0102)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.985e-05       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0110)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3653***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0978)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0404          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0365)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0873*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0490)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4754          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4982          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5155          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.86          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0789***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0114)        </t>
   </si>
   <si>
     <t xml:space="preserve">0.0386          </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0360)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0851*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0477)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4759          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5068          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5195          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.62          </t>
+    <t xml:space="preserve">(0.0364)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0958*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0524)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0817         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0690)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1448          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1243)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0150         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0104)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0015          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0117)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3211***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1014)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0050          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0296)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0837*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0466)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1233**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4710          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5316          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5441          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.20          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0801***       </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0110)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0387          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0364)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0942*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0518)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0802         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0670)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1448          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1250)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0146         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0104)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0016          </t>
+    <t xml:space="preserve">0.0463          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0368)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0771         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0485)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0663         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0683)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1579          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1139)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0165*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0094)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0011         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0118)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.3253***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1017)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0036          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0295)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0819*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0455)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1227**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0490)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4715          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5436          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5484          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.95          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0812***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0112)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0467          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0368)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0758         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0479)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0665)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1579          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1146)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0163*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0094)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0011         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3366***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1059)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0182          </t>
+    <t xml:space="preserve">0.3317***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1055)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0190          </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0317)        </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0887*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0471)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0799*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0419)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4623          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5951          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5836          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.47          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0832***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0113)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0628*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0327)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1010*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0548)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0604         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0625)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1656          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1283)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0207**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0102)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0029          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3679***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0966)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0211          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0284)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0785*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0451)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0614          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0499)        </t>
+    <t xml:space="preserve">-0.0908*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0483)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0804*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0420)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4738          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5116          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5276          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.88          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0795***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0115)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0410          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0370)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0848*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0503)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0742         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0691)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1503          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1183)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0156         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0097)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0001         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0119)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3246***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1045)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0114          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0306)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0881*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0475)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1048**        </t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
         <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
         <v>141</v>
@@ -1030,7 +1030,7 @@
         <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
         <v>141</v>
@@ -1053,7 +1053,7 @@
         <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
         <v>142</v>
@@ -1076,7 +1076,7 @@
         <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
         <v>143</v>
@@ -1099,7 +1099,7 @@
         <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
         <v>144</v>
@@ -1145,7 +1145,7 @@
         <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
         <v>145</v>
@@ -1168,7 +1168,7 @@
         <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
         <v>146</v>
@@ -1191,7 +1191,7 @@
         <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
         <v>147</v>
@@ -1214,7 +1214,7 @@
         <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G15" t="s">
         <v>148</v>
@@ -1237,7 +1237,7 @@
         <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
         <v>149</v>
@@ -1260,7 +1260,7 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
         <v>150</v>
@@ -1283,7 +1283,7 @@
         <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
         <v>151</v>
@@ -1306,7 +1306,7 @@
         <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
         <v>152</v>
@@ -1329,7 +1329,7 @@
         <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G20" t="s">
         <v>153</v>
@@ -1352,7 +1352,7 @@
         <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G21" t="s">
         <v>154</v>
@@ -1375,7 +1375,7 @@
         <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22" t="s">
         <v>155</v>
@@ -1398,7 +1398,7 @@
         <v>106</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
         <v>156</v>
@@ -1421,7 +1421,7 @@
         <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" t="s">
         <v>157</v>
@@ -1444,10 +1444,10 @@
         <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1470,7 +1470,7 @@
         <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1493,7 +1493,7 @@
         <v>134</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1516,7 +1516,7 @@
         <v>135</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1539,7 +1539,7 @@
         <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1562,7 +1562,7 @@
         <v>137</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1585,7 +1585,7 @@
         <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1625,7 +1625,7 @@
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
         <v>49</v>
@@ -1700,7 +1700,7 @@
         <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1723,7 +1723,7 @@
         <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/models/table_d1.xlsx
+++ b/models/table_d1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="152">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -73,10 +73,7 @@
     <t xml:space="preserve">l_sy_suffrage          </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_lifeex            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_sy_urban             </t>
+    <t xml:space="preserve">l_sy_xtr_urban         </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_gdp               </t>
@@ -112,406 +109,367 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1728            </t>
+    <t xml:space="preserve">2132            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2477          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1010         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0129          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.23          </t>
+    <t xml:space="preserve">0.5694          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3535          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3853          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">927.27          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0642***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0073)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1130*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0590)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0676         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0699)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1724*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1042)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3346**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1520)        </t>
+    <t xml:space="preserve">0.1455***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0080)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1350***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0392)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4329***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1164)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0551          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1171)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2525          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1163         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0046          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.832          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0650***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1137**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0577)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0686         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0702)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1628         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1023)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3343**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1478)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0354***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0123)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0164          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0142)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4592          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6033          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5985          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.32          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0808***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0121)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0725**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0335)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0805         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0500)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0488         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0675)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1839          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1123)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0199*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0102)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.985e-05       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0110)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3653***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0978)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0404          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0365)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0873*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0490)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4754          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4982          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5155          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.86          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0789***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0114)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0386          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0364)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0958*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0524)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0817         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0690)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1448          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1243)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0150         </t>
+    <t xml:space="preserve">0.5703          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3447          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3787          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">557.92          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1459***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1348***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1162)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0575          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1180)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0212**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0106)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0101          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0113)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8414          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9578          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9147          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1392.0          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1596***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0152)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0068          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0171)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0755**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0380)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0415          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0327)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0179*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0093)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0073          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0150)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7241***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0514)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0467**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0224)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0598**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0273)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8453          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9342          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8963          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1273.9          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1519***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0159)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0043          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0176)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0439          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0298)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0170          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0360)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0209**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0103)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0054          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0143)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6636***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0632)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0235          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0228)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0524*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0282)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1017***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0313)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8518          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9064          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8781          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1339.5          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1608***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0148)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0139         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0153)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0194         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0112         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0402)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0181*         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0104)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0015          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0117)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3211***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1014)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0050          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0296)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0837*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0466)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1233**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4710          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5316          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5441          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.20          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0801***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0463          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0368)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0771         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0485)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0663         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0683)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1579          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1139)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0165*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0094)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0011         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0118)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3317***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1055)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0190          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0317)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0908*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0483)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0804*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0420)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4738          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5116          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5276          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.88          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0795***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0115)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0410          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0370)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0848*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0503)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0742         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0691)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1503          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1183)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0156         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0097)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0001         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0119)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3246***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1045)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0114          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0306)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0881*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0475)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1048**        </t>
+    <t xml:space="preserve">0.0083          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0131)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6312***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0598)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0066         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0214)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0565**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0264)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2413***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0530)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8488          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9157          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8829          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1309.0          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1532***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0151)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0033         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0168)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0113          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0203)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0004         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0387)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0207*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0059          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0136)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6347***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0642)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0057          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0226)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0520*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0274)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1825***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0429)        </t>
   </si>
 </sst>
 </file>
@@ -869,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,22 +861,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -926,22 +884,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -949,22 +907,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -972,22 +930,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -995,22 +953,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1018,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1041,22 +999,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1064,22 +1022,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1087,22 +1045,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1110,22 +1068,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1133,22 +1091,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1156,22 +1114,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1179,22 +1137,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1202,22 +1160,22 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1225,22 +1183,22 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1248,22 +1206,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1271,22 +1229,22 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1294,22 +1252,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1317,22 +1275,22 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1340,22 +1298,22 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1363,22 +1321,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1386,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1409,22 +1367,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1432,22 +1390,22 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1455,22 +1413,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1478,22 +1436,22 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1501,22 +1459,22 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1524,22 +1482,22 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1547,22 +1505,22 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1570,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1593,22 +1551,22 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1616,22 +1574,22 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1639,22 +1597,22 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1662,68 +1620,22 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
